--- a/BackTest/2020-01-15 BackTest BCD.xlsx
+++ b/BackTest/2020-01-15 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4617.345011349998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4616.145011349999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>427.2</v>
@@ -521,7 +521,7 @@
         <v>-4616.145011349999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>429</v>
@@ -562,7 +562,7 @@
         <v>-5338.723711349999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>429</v>
@@ -603,7 +603,7 @@
         <v>-5511.208111349999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>428.6</v>
@@ -640,7 +640,7 @@
         <v>-5971.208111349999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>427</v>
@@ -681,7 +681,7 @@
         <v>-5939.823711349999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>426</v>
@@ -722,7 +722,7 @@
         <v>-5900.623711349999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>427</v>
@@ -763,7 +763,7 @@
         <v>-6115.402411349999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>428</v>
@@ -804,7 +804,7 @@
         <v>-6115.402411349999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>426</v>
@@ -845,7 +845,7 @@
         <v>-9047.973311349999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>426</v>
@@ -886,7 +886,7 @@
         <v>-8958.278611349999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>423</v>
@@ -927,7 +927,7 @@
         <v>-8600.138711349999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>424.8</v>
@@ -968,7 +968,7 @@
         <v>-8482.575511349998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>425.9</v>
@@ -1009,7 +1009,7 @@
         <v>-6096.446811349998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>426</v>
@@ -1050,7 +1050,7 @@
         <v>-6294.097611349998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>428.7</v>
@@ -1091,7 +1091,7 @@
         <v>-3708.009444299998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>427.6</v>
@@ -1132,7 +1132,7 @@
         <v>-3706.809444299999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>431</v>
@@ -1173,7 +1173,7 @@
         <v>-7179.152744299999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>433.2</v>
@@ -1214,7 +1214,7 @@
         <v>-7184.152744299999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>432.9</v>
@@ -1255,7 +1255,7 @@
         <v>-7112.352744299998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>428.4</v>
@@ -1296,7 +1296,7 @@
         <v>-7111.152744299999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>431</v>
@@ -1337,7 +1337,7 @@
         <v>-3117.096244299998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>432.9</v>
@@ -1378,7 +1378,7 @@
         <v>-4809.713244299998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>433.9</v>
@@ -1419,7 +1419,7 @@
         <v>-4809.713244299998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>433</v>
@@ -1460,7 +1460,7 @@
         <v>-4785.684344299998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>433</v>
@@ -1501,7 +1501,7 @@
         <v>-4799.688844299998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>434</v>
@@ -1542,7 +1542,7 @@
         <v>-5036.088844299998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>432</v>
@@ -1583,7 +1583,7 @@
         <v>-5657.692044299998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>430.7</v>
@@ -1624,7 +1624,7 @@
         <v>-5652.692044299998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>430.3</v>
@@ -1665,7 +1665,7 @@
         <v>-5652.692044299998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>432.9</v>
@@ -1706,7 +1706,7 @@
         <v>-5648.385044299998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>432.9</v>
@@ -1747,7 +1747,7 @@
         <v>-1562.531144299998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>433</v>
@@ -1788,7 +1788,7 @@
         <v>-1642.252444299998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>434</v>
@@ -1829,7 +1829,7 @@
         <v>-1633.677444299998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>433.8</v>
@@ -1870,7 +1870,7 @@
         <v>-1636.570944299998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>436.4</v>
@@ -1911,7 +1911,7 @@
         <v>-1731.270944299998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>436.3</v>
@@ -1952,9 +1952,11 @@
         <v>-1731.270944299998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>433.8</v>
+      </c>
       <c r="J39" t="n">
         <v>428.6</v>
       </c>
@@ -1991,9 +1993,11 @@
         <v>-1731.270944299998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>433.8</v>
+      </c>
       <c r="J40" t="n">
         <v>428.6</v>
       </c>
@@ -2030,9 +2034,11 @@
         <v>-2770.279944299998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>433.8</v>
+      </c>
       <c r="J41" t="n">
         <v>428.6</v>
       </c>
@@ -2069,9 +2075,11 @@
         <v>-2770.279944299998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>433.7</v>
+      </c>
       <c r="J42" t="n">
         <v>428.6</v>
       </c>
@@ -2108,9 +2116,11 @@
         <v>-2766.967444299998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>433.7</v>
+      </c>
       <c r="J43" t="n">
         <v>428.6</v>
       </c>
@@ -2147,9 +2157,11 @@
         <v>-2766.967444299998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>433.8</v>
+      </c>
       <c r="J44" t="n">
         <v>428.6</v>
       </c>
@@ -2186,9 +2198,11 @@
         <v>-2874.967444299998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>433.8</v>
+      </c>
       <c r="J45" t="n">
         <v>428.6</v>
       </c>
@@ -2225,9 +2239,11 @@
         <v>-2874.967444299998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>433.7</v>
+      </c>
       <c r="J46" t="n">
         <v>428.6</v>
       </c>
@@ -2264,9 +2280,11 @@
         <v>-2858.334144299998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>433.7</v>
+      </c>
       <c r="J47" t="n">
         <v>428.6</v>
       </c>
@@ -2303,9 +2321,11 @@
         <v>-2983.527644299998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>436.2</v>
+      </c>
       <c r="J48" t="n">
         <v>428.6</v>
       </c>
@@ -2342,9 +2362,11 @@
         <v>-2983.527644299998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>433.7</v>
+      </c>
       <c r="J49" t="n">
         <v>428.6</v>
       </c>
@@ -2381,9 +2403,11 @@
         <v>-2979.210544299998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>433.7</v>
+      </c>
       <c r="J50" t="n">
         <v>428.6</v>
       </c>
@@ -2420,9 +2444,11 @@
         <v>-3139.190444299998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>435.9</v>
+      </c>
       <c r="J51" t="n">
         <v>428.6</v>
       </c>
@@ -2459,9 +2485,11 @@
         <v>-1149.190444299998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>433.7</v>
+      </c>
       <c r="J52" t="n">
         <v>428.6</v>
       </c>
@@ -2498,9 +2526,11 @@
         <v>-1152.190444299998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>436.2</v>
+      </c>
       <c r="J53" t="n">
         <v>428.6</v>
       </c>
@@ -2537,9 +2567,11 @@
         <v>-1152.190444299998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>434.7</v>
+      </c>
       <c r="J54" t="n">
         <v>428.6</v>
       </c>
@@ -2576,9 +2608,11 @@
         <v>5453.851055700003</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>434.7</v>
+      </c>
       <c r="J55" t="n">
         <v>428.6</v>
       </c>
@@ -2615,9 +2649,11 @@
         <v>4239.975355700002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>438</v>
+      </c>
       <c r="J56" t="n">
         <v>428.6</v>
       </c>
@@ -2654,9 +2690,11 @@
         <v>12774.7648557</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>437.9</v>
+      </c>
       <c r="J57" t="n">
         <v>428.6</v>
       </c>
@@ -2693,9 +2731,11 @@
         <v>12774.7648557</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>438.1</v>
+      </c>
       <c r="J58" t="n">
         <v>428.6</v>
       </c>
@@ -2732,9 +2772,11 @@
         <v>12774.7648557</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>438.1</v>
+      </c>
       <c r="J59" t="n">
         <v>428.6</v>
       </c>
@@ -2771,9 +2813,11 @@
         <v>37878.2149557</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>438.1</v>
+      </c>
       <c r="J60" t="n">
         <v>428.6</v>
       </c>
@@ -2810,9 +2854,11 @@
         <v>41182.7232557</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>439.1</v>
+      </c>
       <c r="J61" t="n">
         <v>428.6</v>
       </c>
@@ -2849,9 +2895,11 @@
         <v>50485.73980779</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>440.4</v>
+      </c>
       <c r="J62" t="n">
         <v>428.6</v>
       </c>
@@ -2888,9 +2936,11 @@
         <v>60444.16900779</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>441.8</v>
+      </c>
       <c r="J63" t="n">
         <v>428.6</v>
       </c>
@@ -2927,9 +2977,11 @@
         <v>59225.55750779</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>443</v>
+      </c>
       <c r="J64" t="n">
         <v>428.6</v>
       </c>
@@ -2966,9 +3018,11 @@
         <v>59178.51650779</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>442.7</v>
+      </c>
       <c r="J65" t="n">
         <v>428.6</v>
       </c>
@@ -3005,9 +3059,11 @@
         <v>58405.71280779001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>442</v>
+      </c>
       <c r="J66" t="n">
         <v>428.6</v>
       </c>
@@ -3044,9 +3100,11 @@
         <v>58405.71280779001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>440</v>
+      </c>
       <c r="J67" t="n">
         <v>428.6</v>
       </c>
@@ -3083,9 +3141,11 @@
         <v>58405.71280779001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>440</v>
+      </c>
       <c r="J68" t="n">
         <v>428.6</v>
       </c>
@@ -3122,9 +3182,11 @@
         <v>57439.51280779001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>440</v>
+      </c>
       <c r="J69" t="n">
         <v>428.6</v>
       </c>
@@ -3161,9 +3223,11 @@
         <v>59253.21960779001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>437.2</v>
+      </c>
       <c r="J70" t="n">
         <v>428.6</v>
       </c>
@@ -3200,9 +3264,11 @@
         <v>59256.25820779001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>441</v>
+      </c>
       <c r="J71" t="n">
         <v>428.6</v>
       </c>
@@ -3239,9 +3305,11 @@
         <v>56515.15820779001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>442.7</v>
+      </c>
       <c r="J72" t="n">
         <v>428.6</v>
       </c>
@@ -3278,9 +3346,11 @@
         <v>56512.09950779001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>441.1</v>
+      </c>
       <c r="J73" t="n">
         <v>428.6</v>
       </c>
@@ -3317,9 +3387,11 @@
         <v>55303.10600779001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>439.8</v>
+      </c>
       <c r="J74" t="n">
         <v>428.6</v>
       </c>
@@ -3356,9 +3428,11 @@
         <v>60515.47650779001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>437.1</v>
+      </c>
       <c r="J75" t="n">
         <v>428.6</v>
       </c>
@@ -3395,9 +3469,11 @@
         <v>60694.63910779001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>437.2</v>
+      </c>
       <c r="J76" t="n">
         <v>428.6</v>
       </c>
@@ -3434,9 +3510,11 @@
         <v>60412.77590779001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>438.3</v>
+      </c>
       <c r="J77" t="n">
         <v>428.6</v>
       </c>
@@ -3473,9 +3551,11 @@
         <v>55308.61190779001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>438</v>
+      </c>
       <c r="J78" t="n">
         <v>428.6</v>
       </c>
@@ -3512,9 +3592,11 @@
         <v>55182.71660779002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>437.2</v>
+      </c>
       <c r="J79" t="n">
         <v>428.6</v>
       </c>
@@ -3551,9 +3633,11 @@
         <v>55182.71660779002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>436.3</v>
+      </c>
       <c r="J80" t="n">
         <v>428.6</v>
       </c>
@@ -3590,9 +3674,11 @@
         <v>55182.71660779002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>436.3</v>
+      </c>
       <c r="J81" t="n">
         <v>428.6</v>
       </c>
@@ -3629,9 +3715,11 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>436.3</v>
+      </c>
       <c r="J82" t="n">
         <v>428.6</v>
       </c>
@@ -3668,9 +3756,11 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J83" t="n">
         <v>428.6</v>
       </c>
@@ -3707,9 +3797,11 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J84" t="n">
         <v>428.6</v>
       </c>
@@ -3746,9 +3838,11 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J85" t="n">
         <v>428.6</v>
       </c>
@@ -3785,9 +3879,11 @@
         <v>40133.26490779002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J86" t="n">
         <v>428.6</v>
       </c>
@@ -3824,9 +3920,11 @@
         <v>40265.53560779002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J87" t="n">
         <v>428.6</v>
       </c>
@@ -3863,9 +3961,11 @@
         <v>37685.53560779002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>434</v>
+      </c>
       <c r="J88" t="n">
         <v>428.6</v>
       </c>
@@ -3902,9 +4002,11 @@
         <v>37685.53560779002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J89" t="n">
         <v>428.6</v>
       </c>
@@ -3941,9 +4043,11 @@
         <v>37685.53560779002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J90" t="n">
         <v>428.6</v>
       </c>
@@ -3980,9 +4084,11 @@
         <v>37985.53560779002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J91" t="n">
         <v>428.6</v>
       </c>
@@ -4019,9 +4125,11 @@
         <v>37985.53560779002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>436.7</v>
+      </c>
       <c r="J92" t="n">
         <v>428.6</v>
       </c>
@@ -4058,9 +4166,11 @@
         <v>37982.53560779002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>436.7</v>
+      </c>
       <c r="J93" t="n">
         <v>428.6</v>
       </c>
@@ -4097,9 +4207,11 @@
         <v>37982.53560779002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>434</v>
+      </c>
       <c r="J94" t="n">
         <v>428.6</v>
       </c>
@@ -4136,9 +4248,11 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>434</v>
+      </c>
       <c r="J95" t="n">
         <v>428.6</v>
       </c>
@@ -4175,9 +4289,11 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J96" t="n">
         <v>428.6</v>
       </c>
@@ -4214,9 +4330,11 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J97" t="n">
         <v>428.6</v>
       </c>
@@ -4253,9 +4371,11 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J98" t="n">
         <v>428.6</v>
       </c>
@@ -4292,9 +4412,11 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J99" t="n">
         <v>428.6</v>
       </c>
@@ -4331,9 +4453,11 @@
         <v>35300.41370779002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J100" t="n">
         <v>428.6</v>
       </c>
@@ -4370,9 +4494,11 @@
         <v>38271.18280779002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J101" t="n">
         <v>428.6</v>
       </c>
@@ -4409,9 +4535,11 @@
         <v>38300.59160779002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>434</v>
+      </c>
       <c r="J102" t="n">
         <v>428.6</v>
       </c>
@@ -4448,9 +4576,11 @@
         <v>38304.79800779002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>435</v>
+      </c>
       <c r="J103" t="n">
         <v>428.6</v>
       </c>
@@ -4487,9 +4617,11 @@
         <v>35023.26690779002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>435.9</v>
+      </c>
       <c r="J104" t="n">
         <v>428.6</v>
       </c>
@@ -4526,9 +4658,11 @@
         <v>24395.98190779002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J105" t="n">
         <v>428.6</v>
       </c>
@@ -4565,9 +4699,11 @@
         <v>24395.98190779002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>433.7</v>
+      </c>
       <c r="J106" t="n">
         <v>428.6</v>
       </c>
@@ -4604,9 +4740,11 @@
         <v>24400.18830779002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>433.7</v>
+      </c>
       <c r="J107" t="n">
         <v>428.6</v>
       </c>
@@ -4643,9 +4781,11 @@
         <v>24515.06820779002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>433.8</v>
+      </c>
       <c r="J108" t="n">
         <v>428.6</v>
       </c>
@@ -4682,9 +4822,11 @@
         <v>24397.51270779002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>434.2</v>
+      </c>
       <c r="J109" t="n">
         <v>428.6</v>
       </c>
@@ -4721,9 +4863,11 @@
         <v>22467.01770779002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J110" t="n">
         <v>428.6</v>
       </c>
@@ -4760,9 +4904,11 @@
         <v>22467.01770779002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>433.8</v>
+      </c>
       <c r="J111" t="n">
         <v>428.6</v>
       </c>
@@ -4799,9 +4945,11 @@
         <v>23171.01770779002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>433.8</v>
+      </c>
       <c r="J112" t="n">
         <v>428.6</v>
       </c>
@@ -4838,9 +4986,11 @@
         <v>23200.42650779002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>435.9</v>
+      </c>
       <c r="J113" t="n">
         <v>428.6</v>
       </c>
@@ -4877,9 +5027,11 @@
         <v>22972.14970779002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>436</v>
+      </c>
       <c r="J114" t="n">
         <v>428.6</v>
       </c>
@@ -4916,9 +5068,11 @@
         <v>22972.14970779002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>435</v>
+      </c>
       <c r="J115" t="n">
         <v>428.6</v>
       </c>
@@ -4955,9 +5109,11 @@
         <v>22972.14970779002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>435</v>
+      </c>
       <c r="J116" t="n">
         <v>428.6</v>
       </c>
@@ -4994,9 +5150,11 @@
         <v>21551.75080779002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>435</v>
+      </c>
       <c r="J117" t="n">
         <v>428.6</v>
       </c>
@@ -5033,9 +5191,11 @@
         <v>19909.28870779002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>434</v>
+      </c>
       <c r="J118" t="n">
         <v>428.6</v>
       </c>
@@ -5072,9 +5232,11 @@
         <v>19909.28870779002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J119" t="n">
         <v>428.6</v>
       </c>
@@ -5111,9 +5273,11 @@
         <v>19909.28870779002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J120" t="n">
         <v>428.6</v>
       </c>
@@ -5150,9 +5314,11 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J121" t="n">
         <v>428.6</v>
       </c>
@@ -5189,9 +5355,11 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>435.6</v>
+      </c>
       <c r="J122" t="n">
         <v>428.6</v>
       </c>
@@ -5228,9 +5396,11 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>435.6</v>
+      </c>
       <c r="J123" t="n">
         <v>428.6</v>
       </c>
@@ -5267,9 +5437,11 @@
         <v>20728.43150779002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>435.6</v>
+      </c>
       <c r="J124" t="n">
         <v>428.6</v>
       </c>
@@ -5306,9 +5478,11 @@
         <v>18301.31790779002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>435.6</v>
+      </c>
       <c r="J125" t="n">
         <v>428.6</v>
       </c>
@@ -5345,9 +5519,11 @@
         <v>18992.38230779002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J126" t="n">
         <v>428.6</v>
       </c>
@@ -5384,9 +5560,11 @@
         <v>18943.18650779002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>435.5</v>
+      </c>
       <c r="J127" t="n">
         <v>428.6</v>
       </c>
@@ -5423,9 +5601,11 @@
         <v>25702.68000779002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>433.9</v>
+      </c>
       <c r="J128" t="n">
         <v>428.6</v>
       </c>
@@ -5462,9 +5642,11 @@
         <v>25702.68000779002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>435.6</v>
+      </c>
       <c r="J129" t="n">
         <v>428.6</v>
       </c>
@@ -5501,9 +5683,11 @@
         <v>25604.67000779002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>435.6</v>
+      </c>
       <c r="J130" t="n">
         <v>428.6</v>
       </c>
@@ -5540,9 +5724,11 @@
         <v>25707.75810779002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>434.9</v>
+      </c>
       <c r="J131" t="n">
         <v>428.6</v>
       </c>
@@ -5579,9 +5765,11 @@
         <v>25326.48330779003</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>435.6</v>
+      </c>
       <c r="J132" t="n">
         <v>428.6</v>
       </c>
@@ -5618,9 +5806,11 @@
         <v>25546.61290779003</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>434.9</v>
+      </c>
       <c r="J133" t="n">
         <v>428.6</v>
       </c>
@@ -5657,9 +5847,11 @@
         <v>25679.94010779003</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>435.6</v>
+      </c>
       <c r="J134" t="n">
         <v>428.6</v>
       </c>
@@ -5696,9 +5888,11 @@
         <v>12874.97050779003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>436.7</v>
+      </c>
       <c r="J135" t="n">
         <v>428.6</v>
       </c>
@@ -5735,9 +5929,11 @@
         <v>13074.97050779003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>435.6</v>
+      </c>
       <c r="J136" t="n">
         <v>428.6</v>
       </c>
@@ -5774,9 +5970,11 @@
         <v>12994.97050779003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>437.8</v>
+      </c>
       <c r="J137" t="n">
         <v>428.6</v>
       </c>
@@ -5813,9 +6011,11 @@
         <v>13754.97050779003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>435.7</v>
+      </c>
       <c r="J138" t="n">
         <v>428.6</v>
       </c>
@@ -5852,9 +6052,11 @@
         <v>13377.26490779003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>437.8</v>
+      </c>
       <c r="J139" t="n">
         <v>428.6</v>
       </c>
@@ -5891,9 +6093,11 @@
         <v>17620.03100779002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>435.8</v>
+      </c>
       <c r="J140" t="n">
         <v>428.6</v>
       </c>
@@ -5930,9 +6134,11 @@
         <v>22902.75250779002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>437.8</v>
+      </c>
       <c r="J141" t="n">
         <v>428.6</v>
       </c>
@@ -5969,9 +6175,11 @@
         <v>3051.731007790026</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>443</v>
+      </c>
       <c r="J142" t="n">
         <v>428.6</v>
       </c>
@@ -6008,9 +6216,11 @@
         <v>4619.615607790026</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>442</v>
+      </c>
       <c r="J143" t="n">
         <v>428.6</v>
       </c>
@@ -6047,9 +6257,11 @@
         <v>17159.93295494002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>442.4</v>
+      </c>
       <c r="J144" t="n">
         <v>428.6</v>
       </c>
@@ -6086,9 +6298,11 @@
         <v>11887.37265494002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>443.9</v>
+      </c>
       <c r="J145" t="n">
         <v>428.6</v>
       </c>
@@ -6125,9 +6339,11 @@
         <v>11110.03115494002</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>443.8</v>
+      </c>
       <c r="J146" t="n">
         <v>428.6</v>
       </c>
@@ -6164,9 +6380,11 @@
         <v>11110.03115494002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>443.6</v>
+      </c>
       <c r="J147" t="n">
         <v>428.6</v>
       </c>
@@ -6203,9 +6421,11 @@
         <v>15434.03115494002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>443.6</v>
+      </c>
       <c r="J148" t="n">
         <v>428.6</v>
       </c>
@@ -6242,9 +6462,11 @@
         <v>14244.77755494002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>443.7</v>
+      </c>
       <c r="J149" t="n">
         <v>428.6</v>
       </c>
@@ -6281,9 +6503,11 @@
         <v>14244.77755494002</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>442</v>
+      </c>
       <c r="J150" t="n">
         <v>428.6</v>
       </c>
@@ -6320,9 +6544,11 @@
         <v>30556.75880779002</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>442</v>
+      </c>
       <c r="J151" t="n">
         <v>428.6</v>
       </c>
@@ -6359,9 +6585,11 @@
         <v>31886.03075494002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>444</v>
+      </c>
       <c r="J152" t="n">
         <v>428.6</v>
       </c>
@@ -6398,9 +6626,11 @@
         <v>49055.26125494002</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>444.3</v>
+      </c>
       <c r="J153" t="n">
         <v>428.6</v>
       </c>
@@ -6437,9 +6667,11 @@
         <v>56581.45105494002</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>449.1</v>
+      </c>
       <c r="J154" t="n">
         <v>428.6</v>
       </c>
@@ -6476,9 +6708,11 @@
         <v>62716.75475494002</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>451</v>
+      </c>
       <c r="J155" t="n">
         <v>428.6</v>
       </c>
@@ -6515,9 +6749,11 @@
         <v>61475.48555494002</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>455</v>
+      </c>
       <c r="J156" t="n">
         <v>428.6</v>
       </c>
@@ -6554,9 +6790,11 @@
         <v>58057.83255494002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>451</v>
+      </c>
       <c r="J157" t="n">
         <v>428.6</v>
       </c>
@@ -6593,9 +6831,11 @@
         <v>61597.00825494002</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>449.2</v>
+      </c>
       <c r="J158" t="n">
         <v>428.6</v>
       </c>
@@ -6632,9 +6872,11 @@
         <v>65720.78455494002</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>452.9</v>
+      </c>
       <c r="J159" t="n">
         <v>428.6</v>
       </c>
@@ -6671,9 +6913,11 @@
         <v>57809.30415270002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>455</v>
+      </c>
       <c r="J160" t="n">
         <v>428.6</v>
       </c>
@@ -6866,9 +7110,11 @@
         <v>56910.75198579003</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>452</v>
+      </c>
       <c r="J165" t="n">
         <v>428.6</v>
       </c>
@@ -6905,9 +7151,11 @@
         <v>56911.85198579002</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>452</v>
+      </c>
       <c r="J166" t="n">
         <v>428.6</v>
       </c>
@@ -6944,9 +7192,11 @@
         <v>56911.85198579002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>456.9</v>
+      </c>
       <c r="J167" t="n">
         <v>428.6</v>
       </c>
@@ -7841,9 +8091,11 @@
         <v>110068.35799279</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>446.8</v>
+      </c>
       <c r="J190" t="n">
         <v>428.6</v>
       </c>
@@ -7880,9 +8132,11 @@
         <v>110140.35799279</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>443.4</v>
+      </c>
       <c r="J191" t="n">
         <v>428.6</v>
       </c>
@@ -7919,9 +8173,11 @@
         <v>114859.42599279</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>444</v>
+      </c>
       <c r="J192" t="n">
         <v>428.6</v>
       </c>
@@ -7958,9 +8214,11 @@
         <v>117832.85989279</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>448.2</v>
+      </c>
       <c r="J193" t="n">
         <v>428.6</v>
       </c>
@@ -7997,9 +8255,11 @@
         <v>113305.34169279</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>450.4</v>
+      </c>
       <c r="J194" t="n">
         <v>428.6</v>
       </c>
@@ -8075,9 +8335,11 @@
         <v>135847.47879279</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>449.3</v>
+      </c>
       <c r="J196" t="n">
         <v>428.6</v>
       </c>
@@ -10454,9 +10716,11 @@
         <v>144625.6238704199</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>467.5</v>
+      </c>
       <c r="J257" t="n">
         <v>428.6</v>
       </c>
@@ -22037,7 +22301,7 @@
         <v>518378.3760927196</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
@@ -22045,13 +22309,15 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
+        <v>1.138257116192254</v>
+      </c>
+      <c r="M554" t="n">
+        <v>1.005854800936768</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -22076,17 +22342,11 @@
         <v>518378.3760927196</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22115,17 +22375,11 @@
         <v>517033.5550927196</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22157,14 +22411,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22196,14 +22444,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22235,14 +22477,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22271,17 +22507,11 @@
         <v>535941.5795927197</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22313,14 +22543,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22352,14 +22576,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22391,14 +22609,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22430,14 +22642,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22469,14 +22675,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22508,14 +22708,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22547,14 +22741,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22586,14 +22774,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22625,14 +22807,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22664,14 +22840,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22703,14 +22873,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22742,14 +22906,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22781,14 +22939,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22820,14 +22972,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22859,14 +23005,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22898,14 +23038,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22937,14 +23071,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22976,14 +23104,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23015,14 +23137,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23054,14 +23170,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23093,14 +23203,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23132,14 +23236,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23171,14 +23269,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23210,14 +23302,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23249,14 +23335,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23288,14 +23368,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23327,14 +23401,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23366,14 +23434,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23405,14 +23467,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23444,14 +23500,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23483,14 +23533,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23522,14 +23566,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23561,14 +23599,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23600,14 +23632,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23639,14 +23665,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23678,14 +23698,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23717,14 +23731,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23756,14 +23764,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23795,14 +23797,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23834,14 +23830,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23873,14 +23863,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23912,14 +23896,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23951,14 +23929,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23990,14 +23962,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24029,14 +23995,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24068,14 +24028,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24107,14 +24061,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24146,14 +24094,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24185,14 +24127,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24224,14 +24160,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24263,14 +24193,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24302,14 +24226,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24341,14 +24259,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24380,14 +24292,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24419,14 +24325,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24458,14 +24358,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24497,14 +24391,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24536,14 +24424,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24575,14 +24457,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24614,14 +24490,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24653,14 +24523,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24692,14 +24556,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -24731,14 +24589,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -24770,14 +24622,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -24809,14 +24655,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -24848,14 +24688,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24887,14 +24721,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24926,14 +24754,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24965,14 +24787,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -25004,14 +24820,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -25043,14 +24853,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -25082,14 +24886,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -25121,14 +24919,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -25160,14 +24952,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -25199,14 +24985,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -25238,14 +25018,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25277,14 +25051,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -25316,14 +25084,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -25355,14 +25117,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -25394,14 +25150,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -25433,14 +25183,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -25472,14 +25216,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -25511,14 +25249,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -25550,14 +25282,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -25589,14 +25315,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -25628,14 +25348,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -25667,14 +25381,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -25706,14 +25414,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25745,14 +25447,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25784,14 +25480,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25823,14 +25513,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -25862,14 +25546,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25901,14 +25579,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25940,14 +25612,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25979,14 +25645,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -26018,14 +25678,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -26057,14 +25711,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26096,14 +25744,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26135,14 +25777,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26174,14 +25810,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -26213,14 +25843,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -26252,14 +25876,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -26291,14 +25909,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -26330,14 +25942,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -26369,14 +25975,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -26408,14 +26008,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -26447,14 +26041,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -26486,14 +26074,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -26525,14 +26107,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -26564,14 +26140,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -26603,14 +26173,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -26642,14 +26206,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -26681,14 +26239,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -26720,14 +26272,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -26759,14 +26305,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -26798,14 +26338,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -26837,14 +26371,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -26876,14 +26404,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -26915,14 +26437,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26954,14 +26470,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26993,14 +26503,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -27032,14 +26536,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -27071,14 +26569,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -27110,14 +26602,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -27149,14 +26635,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -27188,14 +26668,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -27227,14 +26701,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -27266,14 +26734,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -27305,14 +26767,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -27344,14 +26800,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -27383,14 +26833,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -27422,14 +26866,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -27461,14 +26899,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -27500,14 +26932,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -27539,14 +26965,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -27578,14 +26998,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -27617,14 +27031,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -27656,14 +27064,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -27695,14 +27097,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -27734,14 +27130,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -27773,14 +27163,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -27812,14 +27196,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -27851,14 +27229,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -27890,14 +27262,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -27929,14 +27295,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -27968,14 +27328,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -28007,14 +27361,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -28046,14 +27394,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -28085,14 +27427,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -28124,14 +27460,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -28163,14 +27493,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -28202,14 +27526,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -28241,14 +27559,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -28280,14 +27592,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -28319,14 +27625,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -28358,14 +27658,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -28397,14 +27691,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -28436,14 +27724,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -28475,14 +27757,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -28514,14 +27790,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -28553,14 +27823,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -28592,14 +27856,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -28631,14 +27889,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -28670,14 +27922,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -28709,14 +27955,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -28748,14 +27988,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -28787,14 +28021,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -28826,14 +28054,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -28865,14 +28087,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -28904,14 +28120,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -28943,14 +28153,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -28982,14 +28186,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -29021,14 +28219,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -29060,14 +28252,8 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -29099,14 +28285,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -29138,14 +28318,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -29177,14 +28351,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -29216,14 +28384,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -29255,14 +28417,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -29294,14 +28450,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -29333,14 +28483,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -29372,14 +28516,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -29411,14 +28549,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -29450,14 +28582,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -29489,14 +28615,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -29528,14 +28648,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -29567,14 +28681,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -29606,14 +28714,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -29645,14 +28747,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -29684,14 +28780,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -29723,14 +28813,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -29762,14 +28846,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -29801,14 +28879,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -29840,14 +28912,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -29879,14 +28945,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -29918,14 +28978,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -29957,14 +29011,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -29996,14 +29044,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -30035,14 +29077,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -30074,14 +29110,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -30113,14 +29143,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -30152,14 +29176,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -30191,14 +29209,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -30230,14 +29242,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -30266,23 +29272,15 @@
         <v>698328.4034952297</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>428.6</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
-        <v>1.173254783014466</v>
-      </c>
-      <c r="M765" t="n">
-        <v>1.005854800936768</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
@@ -30307,7 +29305,7 @@
         <v>718061.2702952296</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -30406,7 +29404,7 @@
         <v>752307.3386952297</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -30439,7 +29437,7 @@
         <v>914775.6894808498</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -30472,7 +29470,7 @@
         <v>853540.4638808498</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -30505,7 +29503,7 @@
         <v>796654.3348864198</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -30538,7 +29536,7 @@
         <v>842097.9541864198</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -30571,7 +29569,7 @@
         <v>796557.9460864199</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -30604,7 +29602,7 @@
         <v>830823.3518864198</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -30637,7 +29635,7 @@
         <v>845552.7852864198</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -30670,7 +29668,7 @@
         <v>800195.5052864198</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -30703,7 +29701,7 @@
         <v>837789.9610864198</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -30736,7 +29734,7 @@
         <v>798285.9195864197</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -30769,7 +29767,7 @@
         <v>798285.9195864197</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -30802,7 +29800,7 @@
         <v>773393.9626864197</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -30835,7 +29833,7 @@
         <v>745587.9222864197</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -30868,7 +29866,7 @@
         <v>760675.6289864196</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -30901,7 +29899,7 @@
         <v>734177.4297864196</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -30934,7 +29932,7 @@
         <v>766814.4450864196</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -30967,7 +29965,7 @@
         <v>852303.5410651895</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -31000,7 +29998,7 @@
         <v>917325.9681651895</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -31033,7 +30031,7 @@
         <v>787424.0482651895</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -31066,7 +30064,7 @@
         <v>841673.9517651895</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -31099,7 +30097,7 @@
         <v>794047.3485024496</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -31132,7 +30130,7 @@
         <v>758316.9087651896</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -31165,7 +30163,7 @@
         <v>723737.2108651896</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -31198,7 +30196,7 @@
         <v>682619.1926651895</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -31231,7 +30229,7 @@
         <v>696136.7888651895</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -31264,7 +30262,7 @@
         <v>696136.7888651895</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -31297,7 +30295,7 @@
         <v>769937.1157651895</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -31330,7 +30328,7 @@
         <v>733465.0118651895</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -31363,7 +30361,7 @@
         <v>726444.1655651896</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -31396,7 +30394,7 @@
         <v>738023.3424082096</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -31429,7 +30427,7 @@
         <v>701912.8091082096</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -31462,7 +30460,7 @@
         <v>698652.7540082096</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -31495,7 +30493,7 @@
         <v>700161.7540082096</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -31528,7 +30526,7 @@
         <v>699338.5584082096</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -31561,7 +30559,7 @@
         <v>690440.1523082096</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -31594,7 +30592,7 @@
         <v>690749.9129082096</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -31627,7 +30625,7 @@
         <v>690749.9129082096</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -31660,7 +30658,7 @@
         <v>704022.4254082096</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -31693,7 +30691,7 @@
         <v>701395.5540082096</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -31726,7 +30724,7 @@
         <v>706086.6866082096</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -31759,7 +30757,7 @@
         <v>742104.2144082097</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -31792,7 +30790,7 @@
         <v>742104.2144082097</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -31825,7 +30823,7 @@
         <v>745011.0391082097</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -31858,7 +30856,7 @@
         <v>744677.0036082097</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -31891,7 +30889,7 @@
         <v>739675.6694082096</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -31924,7 +30922,7 @@
         <v>774937.3501082096</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -31957,7 +30955,7 @@
         <v>772082.6041082096</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -31990,7 +30988,7 @@
         <v>772082.6041082096</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -32023,7 +31021,7 @@
         <v>771220.8264082096</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -32056,7 +31054,7 @@
         <v>782565.6155082097</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -32089,7 +31087,7 @@
         <v>776105.1663082096</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -32122,7 +31120,7 @@
         <v>772284.7506082096</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -32155,7 +31153,7 @@
         <v>772582.7506082096</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -32188,7 +31186,7 @@
         <v>747376.9449082096</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -32221,7 +31219,7 @@
         <v>747771.7395082096</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -32254,7 +31252,7 @@
         <v>742666.5798082097</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -32287,7 +31285,7 @@
         <v>742666.5798082097</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -32320,7 +31318,7 @@
         <v>743817.8384082096</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -32353,7 +31351,7 @@
         <v>747005.3151082096</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -32386,7 +31384,7 @@
         <v>747095.3151082096</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -32419,7 +31417,7 @@
         <v>747095.3151082096</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -32452,7 +31450,7 @@
         <v>747095.3151082096</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -32485,7 +31483,7 @@
         <v>750054.3151082096</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -32518,7 +31516,7 @@
         <v>750052.5632082096</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -32551,7 +31549,7 @@
         <v>749830.9584082096</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -32584,7 +31582,7 @@
         <v>752083.3164082096</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -32617,7 +31615,7 @@
         <v>753048.1052970897</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -32650,7 +31648,7 @@
         <v>752271.3540970896</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -32683,7 +31681,7 @@
         <v>749703.1798970896</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -32716,7 +31714,7 @@
         <v>738394.9848970897</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -32749,7 +31747,7 @@
         <v>724317.1493970896</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -32782,7 +31780,7 @@
         <v>721936.9626970896</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -32815,7 +31813,7 @@
         <v>693018.2644970897</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -32848,7 +31846,7 @@
         <v>690119.2031970897</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -32881,7 +31879,7 @@
         <v>690119.2031970897</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -32914,7 +31912,7 @@
         <v>680961.1977970897</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -32947,7 +31945,7 @@
         <v>680961.1977970897</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -32980,7 +31978,7 @@
         <v>712233.3110067297</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -33013,7 +32011,7 @@
         <v>712233.3110067297</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -33046,7 +32044,7 @@
         <v>741158.7639067298</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -33079,7 +32077,7 @@
         <v>744382.4822067297</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -33112,7 +32110,7 @@
         <v>736374.1161067297</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -33145,7 +32143,7 @@
         <v>736374.1161067297</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -33178,7 +32176,7 @@
         <v>736374.1161067297</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -33211,7 +32209,7 @@
         <v>737911.1675067297</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -33244,7 +32242,7 @@
         <v>742516.2021067297</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -33277,7 +32275,7 @@
         <v>741556.0423067297</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -33310,7 +32308,7 @@
         <v>743853.1846067297</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -33343,7 +32341,7 @@
         <v>753688.2443067296</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -33376,7 +32374,7 @@
         <v>742017.9169424396</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -33409,7 +32407,7 @@
         <v>739381.0537489196</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -33442,7 +32440,7 @@
         <v>736449.7338489196</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -33475,7 +32473,7 @@
         <v>732318.4419682897</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -33508,7 +32506,7 @@
         <v>734163.4380682897</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -33541,7 +32539,7 @@
         <v>732712.7060682897</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -33574,7 +32572,7 @@
         <v>730311.2307682896</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -33607,7 +32605,7 @@
         <v>740397.3160682897</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -33640,7 +32638,7 @@
         <v>744128.1429682897</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -33673,7 +32671,7 @@
         <v>750882.2278104797</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -33706,7 +32704,7 @@
         <v>763682.2244104797</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -33739,7 +32737,7 @@
         <v>773037.8690104797</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -33772,7 +32770,7 @@
         <v>775157.1529104797</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -33805,7 +32803,7 @@
         <v>784616.2960745797</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -33838,7 +32836,7 @@
         <v>767966.9530745797</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -33871,7 +32869,7 @@
         <v>784282.2870745797</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -33904,7 +32902,7 @@
         <v>784282.2870745797</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -33937,7 +32935,7 @@
         <v>793888.6089856997</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -33970,7 +32968,7 @@
         <v>810562.5484704797</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -34003,7 +33001,7 @@
         <v>829866.2491407197</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -34036,7 +33034,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -34069,7 +33067,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -34102,7 +33100,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -34135,7 +33133,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -34168,7 +33166,7 @@
         <v>828788.8961407196</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -34201,7 +33199,7 @@
         <v>827819.8170407197</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -34234,7 +33232,7 @@
         <v>825865.8707407197</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -34245,6 +33243,6 @@
       <c r="M885" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>